--- a/265-rc---task---supprimer-le-typedroitprestation/ig/all-profiles.xlsx
+++ b/265-rc---task---supprimer-le-typedroitprestation/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16664" uniqueCount="1251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16466" uniqueCount="1241">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T13:30:53+00:00</t>
+    <t>2024-12-04T13:46:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3272,7 +3272,7 @@
 </t>
   </si>
   <si>
-    <t>5</t>
+    <t>4</t>
   </si>
   <si>
     <t>Information used to perform task</t>
@@ -3837,41 +3837,6 @@
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J250-MotifStatutPersonnePriseChargeUnite/FHIR/JDV-J250-MotifStatutPersonnePriseChargeUnite</t>
-  </si>
-  <si>
-    <t>Task.input:typeDroitPrestation</t>
-  </si>
-  <si>
-    <t>typeDroitPrestation</t>
-  </si>
-  <si>
-    <t>Permet de définir le type de droit et prestation caractérisant la décision d'orientation.</t>
-  </si>
-  <si>
-    <t>Task.input:typeDroitPrestation.id</t>
-  </si>
-  <si>
-    <t>Task.input:typeDroitPrestation.extension</t>
-  </si>
-  <si>
-    <t>Task.input:typeDroitPrestation.modifierExtension</t>
-  </si>
-  <si>
-    <t>Task.input:typeDroitPrestation.type</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/sdo/CodeSystem/input-task-sdo-codesystem"/&gt;
-    &lt;code value="typeDroitPrestation"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>Task.input:typeDroitPrestation.value[x]</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_JXX-typeDroitPrestation/FHIR/JDV_JXX-typeDroitPrestation</t>
   </si>
   <si>
     <t>Task.input:idDecision</t>
@@ -5088,7 +5053,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK496"/>
+  <dimension ref="A1:AK490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -54765,7 +54730,7 @@
         <v>1043</v>
       </c>
       <c r="D473" t="s" s="2">
-        <v>1210</v>
+        <v>612</v>
       </c>
       <c r="E473" t="s" s="2">
         <v>1044</v>
@@ -54790,7 +54755,7 @@
         <v>136</v>
       </c>
       <c r="M473" t="s" s="2">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="N473" t="s" s="2">
         <v>1047</v>
@@ -54866,7 +54831,7 @@
         <v>858</v>
       </c>
       <c r="B474" t="s" s="2">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C474" t="s" s="2">
         <v>1050</v>
@@ -54969,7 +54934,7 @@
         <v>858</v>
       </c>
       <c r="B475" t="s" s="2">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C475" t="s" s="2">
         <v>1051</v>
@@ -55074,7 +55039,7 @@
         <v>858</v>
       </c>
       <c r="B476" t="s" s="2">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C476" t="s" s="2">
         <v>1052</v>
@@ -55181,7 +55146,7 @@
         <v>858</v>
       </c>
       <c r="B477" t="s" s="2">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C477" t="s" s="2">
         <v>1053</v>
@@ -55229,7 +55194,7 @@
         <v>74</v>
       </c>
       <c r="T477" t="s" s="2">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="U477" t="s" s="2">
         <v>74</v>
@@ -55288,7 +55253,7 @@
         <v>858</v>
       </c>
       <c r="B478" t="s" s="2">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C478" t="s" s="2">
         <v>1060</v>
@@ -55314,7 +55279,7 @@
         <v>74</v>
       </c>
       <c r="L478" t="s" s="2">
-        <v>354</v>
+        <v>112</v>
       </c>
       <c r="M478" t="s" s="2">
         <v>1062</v>
@@ -55347,11 +55312,13 @@
         <v>74</v>
       </c>
       <c r="Y478" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="Z478" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Z478" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AA478" t="s" s="2">
-        <v>1218</v>
+        <v>74</v>
       </c>
       <c r="AB478" t="s" s="2">
         <v>74</v>
@@ -55389,13 +55356,13 @@
         <v>858</v>
       </c>
       <c r="B479" t="s" s="2">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C479" t="s" s="2">
         <v>1043</v>
       </c>
       <c r="D479" t="s" s="2">
-        <v>612</v>
+        <v>633</v>
       </c>
       <c r="E479" t="s" s="2">
         <v>1044</v>
@@ -55420,7 +55387,7 @@
         <v>136</v>
       </c>
       <c r="M479" t="s" s="2">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="N479" t="s" s="2">
         <v>1047</v>
@@ -55496,7 +55463,7 @@
         <v>858</v>
       </c>
       <c r="B480" t="s" s="2">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C480" t="s" s="2">
         <v>1050</v>
@@ -55599,7 +55566,7 @@
         <v>858</v>
       </c>
       <c r="B481" t="s" s="2">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C481" t="s" s="2">
         <v>1051</v>
@@ -55704,7 +55671,7 @@
         <v>858</v>
       </c>
       <c r="B482" t="s" s="2">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C482" t="s" s="2">
         <v>1052</v>
@@ -55811,7 +55778,7 @@
         <v>858</v>
       </c>
       <c r="B483" t="s" s="2">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C483" t="s" s="2">
         <v>1053</v>
@@ -55859,7 +55826,7 @@
         <v>74</v>
       </c>
       <c r="T483" t="s" s="2">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="U483" t="s" s="2">
         <v>74</v>
@@ -55918,7 +55885,7 @@
         <v>858</v>
       </c>
       <c r="B484" t="s" s="2">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C484" t="s" s="2">
         <v>1060</v>
@@ -56021,23 +55988,21 @@
         <v>858</v>
       </c>
       <c r="B485" t="s" s="2">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C485" t="s" s="2">
-        <v>1043</v>
-      </c>
-      <c r="D485" t="s" s="2">
-        <v>633</v>
-      </c>
+        <v>1225</v>
+      </c>
+      <c r="D485" s="2"/>
       <c r="E485" t="s" s="2">
-        <v>1044</v>
+        <v>74</v>
       </c>
       <c r="F485" s="2"/>
       <c r="G485" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H485" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I485" t="s" s="2">
         <v>74</v>
@@ -56052,14 +56017,14 @@
         <v>136</v>
       </c>
       <c r="M485" t="s" s="2">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="N485" t="s" s="2">
-        <v>1047</v>
+        <v>1227</v>
       </c>
       <c r="O485" s="2"/>
       <c r="P485" t="s" s="2">
-        <v>1048</v>
+        <v>1228</v>
       </c>
       <c r="Q485" t="s" s="2">
         <v>74</v>
@@ -56108,7 +56073,7 @@
         <v>74</v>
       </c>
       <c r="AG485" t="s" s="2">
-        <v>1043</v>
+        <v>1225</v>
       </c>
       <c r="AH485" t="s" s="2">
         <v>75</v>
@@ -56131,7 +56096,7 @@
         <v>1229</v>
       </c>
       <c r="C486" t="s" s="2">
-        <v>1050</v>
+        <v>1229</v>
       </c>
       <c r="D486" s="2"/>
       <c r="E486" t="s" s="2">
@@ -56234,7 +56199,7 @@
         <v>1230</v>
       </c>
       <c r="C487" t="s" s="2">
-        <v>1051</v>
+        <v>1230</v>
       </c>
       <c r="D487" s="2"/>
       <c r="E487" t="s" s="2">
@@ -56339,7 +56304,7 @@
         <v>1231</v>
       </c>
       <c r="C488" t="s" s="2">
-        <v>1052</v>
+        <v>1231</v>
       </c>
       <c r="D488" s="2"/>
       <c r="E488" t="s" s="2">
@@ -56446,7 +56411,7 @@
         <v>1232</v>
       </c>
       <c r="C489" t="s" s="2">
-        <v>1053</v>
+        <v>1232</v>
       </c>
       <c r="D489" s="2"/>
       <c r="E489" t="s" s="2">
@@ -56472,16 +56437,16 @@
         <v>354</v>
       </c>
       <c r="M489" t="s" s="2">
-        <v>1055</v>
+        <v>1233</v>
       </c>
       <c r="N489" t="s" s="2">
-        <v>1056</v>
+        <v>1234</v>
       </c>
       <c r="O489" t="s" s="2">
-        <v>1057</v>
+        <v>357</v>
       </c>
       <c r="P489" t="s" s="2">
-        <v>1058</v>
+        <v>1235</v>
       </c>
       <c r="Q489" t="s" s="2">
         <v>74</v>
@@ -56491,7 +56456,7 @@
         <v>74</v>
       </c>
       <c r="T489" t="s" s="2">
-        <v>1233</v>
+        <v>74</v>
       </c>
       <c r="U489" t="s" s="2">
         <v>74</v>
@@ -56509,7 +56474,7 @@
         <v>315</v>
       </c>
       <c r="Z489" t="s" s="2">
-        <v>1059</v>
+        <v>1236</v>
       </c>
       <c r="AA489" t="s" s="2">
         <v>74</v>
@@ -56530,7 +56495,7 @@
         <v>74</v>
       </c>
       <c r="AG489" t="s" s="2">
-        <v>1053</v>
+        <v>1232</v>
       </c>
       <c r="AH489" t="s" s="2">
         <v>82</v>
@@ -56550,10 +56515,10 @@
         <v>858</v>
       </c>
       <c r="B490" t="s" s="2">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="C490" t="s" s="2">
-        <v>1060</v>
+        <v>1237</v>
       </c>
       <c r="D490" s="2"/>
       <c r="E490" t="s" s="2">
@@ -56576,16 +56541,18 @@
         <v>74</v>
       </c>
       <c r="L490" t="s" s="2">
-        <v>112</v>
+        <v>1061</v>
       </c>
       <c r="M490" t="s" s="2">
-        <v>1062</v>
+        <v>1238</v>
       </c>
       <c r="N490" t="s" s="2">
-        <v>1063</v>
+        <v>1239</v>
       </c>
       <c r="O490" s="2"/>
-      <c r="P490" s="2"/>
+      <c r="P490" t="s" s="2">
+        <v>1240</v>
+      </c>
       <c r="Q490" t="s" s="2">
         <v>74</v>
       </c>
@@ -56633,7 +56600,7 @@
         <v>74</v>
       </c>
       <c r="AG490" t="s" s="2">
-        <v>1060</v>
+        <v>1237</v>
       </c>
       <c r="AH490" t="s" s="2">
         <v>82</v>
@@ -56645,638 +56612,6 @@
         <v>94</v>
       </c>
       <c r="AK490" t="s" s="2">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="s" s="2">
-        <v>858</v>
-      </c>
-      <c r="B491" t="s" s="2">
-        <v>1235</v>
-      </c>
-      <c r="C491" t="s" s="2">
-        <v>1235</v>
-      </c>
-      <c r="D491" s="2"/>
-      <c r="E491" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F491" s="2"/>
-      <c r="G491" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H491" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I491" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J491" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K491" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="L491" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M491" t="s" s="2">
-        <v>1236</v>
-      </c>
-      <c r="N491" t="s" s="2">
-        <v>1237</v>
-      </c>
-      <c r="O491" s="2"/>
-      <c r="P491" t="s" s="2">
-        <v>1238</v>
-      </c>
-      <c r="Q491" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R491" s="2"/>
-      <c r="S491" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T491" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U491" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V491" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W491" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X491" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y491" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z491" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA491" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB491" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC491" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD491" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE491" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF491" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG491" t="s" s="2">
-        <v>1235</v>
-      </c>
-      <c r="AH491" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI491" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ491" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK491" t="s" s="2">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="s" s="2">
-        <v>858</v>
-      </c>
-      <c r="B492" t="s" s="2">
-        <v>1239</v>
-      </c>
-      <c r="C492" t="s" s="2">
-        <v>1239</v>
-      </c>
-      <c r="D492" s="2"/>
-      <c r="E492" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F492" s="2"/>
-      <c r="G492" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H492" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I492" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J492" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K492" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="L492" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M492" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N492" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O492" s="2"/>
-      <c r="P492" s="2"/>
-      <c r="Q492" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R492" s="2"/>
-      <c r="S492" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T492" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U492" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V492" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W492" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X492" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y492" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z492" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA492" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB492" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC492" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD492" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE492" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF492" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG492" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AH492" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI492" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ492" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK492" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="s" s="2">
-        <v>858</v>
-      </c>
-      <c r="B493" t="s" s="2">
-        <v>1240</v>
-      </c>
-      <c r="C493" t="s" s="2">
-        <v>1240</v>
-      </c>
-      <c r="D493" s="2"/>
-      <c r="E493" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="F493" s="2"/>
-      <c r="G493" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H493" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I493" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J493" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K493" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="L493" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M493" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N493" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O493" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="P493" s="2"/>
-      <c r="Q493" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R493" s="2"/>
-      <c r="S493" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T493" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U493" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V493" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W493" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X493" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y493" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z493" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA493" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB493" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC493" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AD493" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AE493" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF493" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AG493" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AH493" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI493" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ493" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK493" t="s" s="2">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" t="s" s="2">
-        <v>858</v>
-      </c>
-      <c r="B494" t="s" s="2">
-        <v>1241</v>
-      </c>
-      <c r="C494" t="s" s="2">
-        <v>1241</v>
-      </c>
-      <c r="D494" s="2"/>
-      <c r="E494" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="F494" s="2"/>
-      <c r="G494" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H494" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I494" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J494" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K494" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L494" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M494" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N494" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O494" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="P494" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="Q494" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R494" s="2"/>
-      <c r="S494" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T494" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U494" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V494" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W494" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X494" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y494" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z494" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA494" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB494" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC494" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD494" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE494" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF494" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG494" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AH494" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI494" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ494" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK494" t="s" s="2">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" t="s" s="2">
-        <v>858</v>
-      </c>
-      <c r="B495" t="s" s="2">
-        <v>1242</v>
-      </c>
-      <c r="C495" t="s" s="2">
-        <v>1242</v>
-      </c>
-      <c r="D495" s="2"/>
-      <c r="E495" t="s" s="2">
-        <v>1054</v>
-      </c>
-      <c r="F495" s="2"/>
-      <c r="G495" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H495" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I495" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J495" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K495" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="L495" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M495" t="s" s="2">
-        <v>1243</v>
-      </c>
-      <c r="N495" t="s" s="2">
-        <v>1244</v>
-      </c>
-      <c r="O495" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="P495" t="s" s="2">
-        <v>1245</v>
-      </c>
-      <c r="Q495" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R495" s="2"/>
-      <c r="S495" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T495" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U495" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V495" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W495" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X495" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y495" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="Z495" t="s" s="2">
-        <v>1246</v>
-      </c>
-      <c r="AA495" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB495" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC495" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD495" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE495" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF495" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG495" t="s" s="2">
-        <v>1242</v>
-      </c>
-      <c r="AH495" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI495" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ495" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK495" t="s" s="2">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="s" s="2">
-        <v>858</v>
-      </c>
-      <c r="B496" t="s" s="2">
-        <v>1247</v>
-      </c>
-      <c r="C496" t="s" s="2">
-        <v>1247</v>
-      </c>
-      <c r="D496" s="2"/>
-      <c r="E496" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F496" s="2"/>
-      <c r="G496" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H496" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I496" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J496" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K496" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="L496" t="s" s="2">
-        <v>1061</v>
-      </c>
-      <c r="M496" t="s" s="2">
-        <v>1248</v>
-      </c>
-      <c r="N496" t="s" s="2">
-        <v>1249</v>
-      </c>
-      <c r="O496" s="2"/>
-      <c r="P496" t="s" s="2">
-        <v>1250</v>
-      </c>
-      <c r="Q496" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R496" s="2"/>
-      <c r="S496" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T496" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U496" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V496" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W496" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X496" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y496" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z496" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA496" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB496" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC496" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD496" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE496" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF496" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG496" t="s" s="2">
-        <v>1247</v>
-      </c>
-      <c r="AH496" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI496" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ496" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK496" t="s" s="2">
         <v>95</v>
       </c>
     </row>

--- a/265-rc---task---supprimer-le-typedroitprestation/ig/all-profiles.xlsx
+++ b/265-rc---task---supprimer-le-typedroitprestation/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T13:46:01+00:00</t>
+    <t>2024-12-04T14:25:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
